--- a/테이블 구성.xlsx
+++ b/테이블 구성.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-uruk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D582CED-6EE1-4C2E-8C80-2AA0265D5FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2599F1-19AF-42C4-AD19-06043E2D2B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14490" yWindow="7335" windowWidth="21600" windowHeight="11325" activeTab="2" xr2:uid="{59F6D182-FAEC-4BF3-A690-25A750217E18}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{59F6D182-FAEC-4BF3-A690-25A750217E18}"/>
   </bookViews>
   <sheets>
     <sheet name="game-data" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <author>kny</author>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{18DE2719-5EC4-49B6-A066-AFE781AD02AD}">
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{18DE2719-5EC4-49B6-A066-AFE781AD02AD}">
       <text>
         <r>
           <rPr>
@@ -453,7 +453,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="312">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -611,10 +611,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>낚싯대 경도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>낚싯대 등급 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -655,10 +651,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>릴 기본 내구도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>reel_winding_amount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -719,10 +711,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>reel_grade_max_upgrade_level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>릴 최대 업그레이드 수치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -807,10 +795,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>낚시 바늘 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>물고기 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -831,22 +815,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>출항 비용(won, 장소의 거리에 따라 출항비용이 달라진다. 멀수록 비쌈)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>출항 시간(m, 장소의 거리에 따라 출항시간이 달라진다. 멀수록 오래걸림)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fish_map</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물고기가 여러 장소에 있을 수 있고, 먼 장소일수록 희귀한 물고기도 있으며 물고기 씨알도 굵어지기 때문에</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tide</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -879,38 +851,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>물고기 id(PK)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>조류 세기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>upgrade_item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upgrade_item_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upgrade_item_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업그레이드 부품 조각 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업그레이드 부품 조각 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>upgrade_item_satisfying_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -979,10 +923,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>낚시줄 길이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>length</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -999,10 +939,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>업그레이드 시 필요 부품 조각 개수(예. 3개가 있어야 채비 업그레이드를 할 수 있다)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>낚시 추 무게(g)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1079,10 +1015,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>업그레이드 부품 조각</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>재화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1290,14 +1222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weight_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weight_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>account_user</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1442,10 +1366,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이템 id (채비일 경우 item_id, 물고기일 경우 fish_id)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>get_date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1627,6 +1547,157 @@
   </si>
   <si>
     <t>릴 내구도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨에 따른 보로롱 24호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출항에 필요한 피로도(won, 장소의 거리에 따라 출항비용이 달라진다. 멀수록 비쌈)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚싯줄 id (번호가 높아질수록 두께가 두꺼워진다)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시 바늘 id (크기에 따라 번호가 커진다)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚싯대 경도(g)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강도 (버틸 수 있는 무게, g)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reel_max_upgrade_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sinker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sinker_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sinker_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sinker_weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저별 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_item_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 아이템 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_fish_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저별 물고기 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저별 물고기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업그레이드 가능 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upgrade_available</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>piece</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부품 조각(장비 업그레이드에 필요하다)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨업을 위해 필요한 수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨업을 위해 필요한 수치(500을 채워야 레벨업이 가능하다, 수치 50인 부품 조각을 10개 모아야 레벨업이 가능하다)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>piece_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부품 조각 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부품 조각 name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>piece_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>piece_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업그레이드 수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value_for_next_level</t>
+  </si>
+  <si>
+    <t>value_for_next_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL 허용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 -&gt; 업그레이드 가능 아이템, 1 -&gt; 업그레이드 불가능 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 id (채비일 경우 user_item_id, 물고기일 경우 user_fish_id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish -&gt; 0, item -&gt; 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1711,7 +1782,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1729,52 +1800,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1800,13 +1825,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1837,37 +1884,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2184,10 +2234,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF64E5F-28AE-4868-B332-37029AACFFCF}">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2196,32 +2246,32 @@
     <col min="2" max="2" width="29.75" customWidth="1"/>
     <col min="3" max="3" width="99" customWidth="1"/>
     <col min="4" max="4" width="25.25" customWidth="1"/>
-    <col min="5" max="5" width="43.5" customWidth="1"/>
+    <col min="5" max="5" width="53" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>211</v>
+      <c r="A1" s="11" t="s">
+        <v>192</v>
       </c>
       <c r="B1" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>167</v>
+      <c r="B2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2229,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2246,13 +2296,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -2261,13 +2311,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -2276,39 +2326,39 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
-        <v>222</v>
+      <c r="A8" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="B8" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>167</v>
+      <c r="B9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -2316,16 +2366,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -2333,13 +2383,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -2348,13 +2398,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -2363,13 +2413,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -2378,13 +2428,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E14" s="2"/>
     </row>
@@ -2393,39 +2443,39 @@
         <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
-        <v>230</v>
+      <c r="A17" s="11" t="s">
+        <v>211</v>
       </c>
       <c r="B17" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>167</v>
+      <c r="B18" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -2433,16 +2483,16 @@
         <v>1</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -2453,13 +2503,13 @@
         <v>35</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -2467,41 +2517,41 @@
         <v>3</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
-        <v>235</v>
+      <c r="A23" s="11" t="s">
+        <v>216</v>
       </c>
       <c r="B23" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>167</v>
+      <c r="B24" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -2509,16 +2559,16 @@
         <v>1</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -2526,13 +2576,13 @@
         <v>2</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E26" s="2"/>
     </row>
@@ -2541,13 +2591,13 @@
         <v>3</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E27" s="2"/>
     </row>
@@ -2556,39 +2606,39 @@
         <v>4</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
-        <v>243</v>
+      <c r="A30" s="11" t="s">
+        <v>230</v>
       </c>
       <c r="B30" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>167</v>
+      <c r="B31" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -2596,16 +2646,16 @@
         <v>1</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>245</v>
+        <v>201</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -2613,232 +2663,234 @@
         <v>2</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>220</v>
+        <v>3</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>231</v>
+        <v>85</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E33" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>3</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>176</v>
+        <v>232</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>175</v>
+        <v>233</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>4</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E35" s="2"/>
-    </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <v>5</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="A36" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="E36" s="2"/>
+      <c r="B36" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="B38" t="s">
-        <v>251</v>
+      <c r="A38" s="2">
+        <v>1</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>167</v>
-      </c>
+      <c r="A39" s="2">
+        <v>2</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>2</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
-        <v>3</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E42" s="2"/>
+      <c r="A42" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B42" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="B44" t="s">
-        <v>255</v>
+      <c r="A44" s="2">
+        <v>1</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>167</v>
+      <c r="A45" s="2">
+        <v>2</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>169</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>169</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="E48" s="2"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="17" t="s">
-        <v>259</v>
+      <c r="A50" s="11" t="s">
+        <v>247</v>
       </c>
       <c r="B50" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>167</v>
+      <c r="B51" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -2846,16 +2898,16 @@
         <v>1</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -2863,16 +2915,16 @@
         <v>2</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>261</v>
+        <v>3</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>283</v>
+        <v>85</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>234</v>
+        <v>151</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -2880,28 +2932,30 @@
         <v>3</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>262</v>
+        <v>32</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E54" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>4</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E55" s="2"/>
     </row>
@@ -2910,181 +2964,378 @@
         <v>5</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E56" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>6</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="B58" t="s">
-        <v>268</v>
-      </c>
+      <c r="A58" s="2">
+        <v>7</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E58" s="2"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="2">
+        <v>8</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="2"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B61" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B59" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
-        <v>1</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
-        <v>2</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
-        <v>3</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>169</v>
+      <c r="B62" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>184</v>
+        <v>226</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>270</v>
+        <v>227</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E63" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>261</v>
+        <v>201</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>271</v>
+        <v>212</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>169</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="E65" s="2"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E66" s="2"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>23</v>
+        <v>228</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>145</v>
+        <v>229</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="E67" s="2"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B69" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="7">
+        <v>1</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="E71" s="21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="7">
+        <v>2</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E72" s="7"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="7">
+        <v>3</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E73" s="7"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="7">
+        <v>4</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="7">
+        <v>5</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="7">
+        <v>6</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B78" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80" t="s">
+        <v>291</v>
+      </c>
+      <c r="C80" t="s">
+        <v>292</v>
+      </c>
+      <c r="D80" t="s">
+        <v>151</v>
+      </c>
+      <c r="E80" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>2</v>
+      </c>
+      <c r="B81" t="s">
+        <v>201</v>
+      </c>
+      <c r="C81" t="s">
+        <v>212</v>
+      </c>
+      <c r="D81" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>3</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>85</v>
+      </c>
+      <c r="D82" t="s">
+        <v>151</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3242E66-B909-433E-B55E-F4A11B1BEF69}">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3096,29 +3347,29 @@
     <col min="5" max="5" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -3126,863 +3377,889 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>152</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="C8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="B14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="B15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="D17" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>3</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="D18" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>1</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>2</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>4</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>5</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E21" s="2"/>
+      <c r="B21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <v>6</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>95</v>
+        <v>1</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E22" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <v>7</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>30</v>
+        <v>2</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>121</v>
+        <v>17</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="11"/>
+      <c r="A25" s="4">
+        <v>4</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="15"/>
+      <c r="A26" s="4">
+        <v>5</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>167</v>
-      </c>
+      <c r="A27" s="4">
+        <v>6</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <v>1</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>32</v>
+        <v>7</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>169</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>3</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E30" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="E29" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>4</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E31" s="2"/>
+      <c r="A31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>5</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E32" s="2"/>
+      <c r="A32" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="8">
-        <v>6</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>146</v>
+      <c r="A33" s="2">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" t="s">
-        <v>144</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>2</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E34" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>1</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>169</v>
+      <c r="B37" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E38" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>2</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="A40" s="2">
+        <v>3</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>4</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="13" t="s">
+      <c r="D41" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
-        <v>1</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
-        <v>2</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
-        <v>3</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E44" s="2"/>
+      <c r="B44" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>2</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B47" t="s">
-        <v>138</v>
+      <c r="D46" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B48" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
-        <v>1</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>169</v>
+      <c r="B49" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>169</v>
-      </c>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>2</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B52" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="13" t="s">
+      <c r="A52" s="2">
+        <v>3</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B54" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
-        <v>1</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
-        <v>2</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E55" s="2"/>
+      <c r="B55" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>3</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>164</v>
+        <v>1</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B58" t="s">
-        <v>177</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>2</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E57" s="2"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B59" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B59" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
-        <v>1</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>169</v>
+      <c r="B60" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B63" t="s">
-        <v>275</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>2</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E62" s="2"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B64" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
-        <v>1</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>169</v>
+      <c r="B65" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>276</v>
+        <v>199</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>277</v>
+        <v>200</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E66" s="2"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B68" t="s">
-        <v>279</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>2</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E67" s="2"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B69" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
-        <v>1</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>169</v>
+      <c r="B70" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>281</v>
+        <v>101</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E71" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>2</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>3</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E73" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3994,44 +4271,44 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFF3889-4DE1-4EDC-BE51-A4C2BB00F684}">
-  <dimension ref="A1:G120"/>
+  <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.625" customWidth="1"/>
     <col min="2" max="2" width="49.625" customWidth="1"/>
-    <col min="3" max="3" width="75" customWidth="1"/>
+    <col min="3" max="3" width="108" customWidth="1"/>
     <col min="4" max="4" width="17.25" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>167</v>
+      <c r="B2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -4039,16 +4316,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -4059,10 +4336,10 @@
         <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -4071,13 +4348,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -4086,39 +4363,39 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>167</v>
+      <c r="B9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -4126,16 +4403,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -4143,13 +4420,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -4164,20 +4441,20 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>167</v>
+      <c r="B14" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -4188,13 +4465,13 @@
         <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -4202,13 +4479,13 @@
         <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E16" s="2"/>
     </row>
@@ -4217,13 +4494,13 @@
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E17" s="2"/>
     </row>
@@ -4234,27 +4511,27 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="B19" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>167</v>
+      <c r="B20" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -4262,16 +4539,16 @@
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -4279,13 +4556,13 @@
         <v>2</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E22" s="2"/>
     </row>
@@ -4296,27 +4573,27 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>167</v>
+      <c r="B25" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -4324,16 +4601,16 @@
         <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -4341,13 +4618,13 @@
         <v>2</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E27" s="2"/>
     </row>
@@ -4356,1181 +4633,1154 @@
         <v>3</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E28" s="2"/>
     </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>4</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="A30" s="7"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>1</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="B32" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>1</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>2</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>3</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B37" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>1</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>2</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="C39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>2</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="16">
+        <v>3</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>3</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B36" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="s">
+      <c r="D41" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E41" s="16"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="17">
+        <v>4</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E42" s="19"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
+        <v>5</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
+        <v>6</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="9">
+        <v>7</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="9"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <v>1</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>2</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
-        <v>3</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>4</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
-        <v>5</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
-        <v>6</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
-        <v>7</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="9"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="8">
-        <v>1</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>169</v>
+      <c r="B48" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E49" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
+      <c r="A50" s="8">
+        <v>2</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B51" t="s">
-        <v>61</v>
-      </c>
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
-        <v>1</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>169</v>
+      <c r="B53" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>43</v>
+        <v>276</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="18" t="s">
-        <v>288</v>
+        <v>151</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="E55" s="2"/>
+      <c r="F55" s="12" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
+        <v>3</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
         <v>4</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
+      <c r="B57" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>290</v>
-      </c>
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B59" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="8">
-        <v>1</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>169</v>
+      <c r="B60" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
-        <v>2</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>114</v>
+        <v>1</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>72</v>
+        <v>270</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E62" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
+        <v>3</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="8">
         <v>4</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C63" s="8" t="s">
+      <c r="B64" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D63" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E63" s="2"/>
+      <c r="C64" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B65" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="13" t="s">
+      <c r="A65" s="12">
+        <v>5</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E65" s="7"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B67" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
-        <v>1</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
-        <v>2</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E68" s="2"/>
+      <c r="B68" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E69" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="E70" s="2"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>4</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B74" t="s">
         <v>51</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E71" s="2"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B73" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="13" t="s">
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E74" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="G74" s="20"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
-        <v>1</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>169</v>
-      </c>
+      <c r="B75" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G75" s="14"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E76" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
+        <v>2</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
         <v>3</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
+      <c r="B78" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="13" t="s">
+      <c r="A80" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D80" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E80" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
-        <v>1</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>169</v>
+      <c r="B81" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>292</v>
+        <v>81</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
+        <v>2</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
         <v>3</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E83" s="2"/>
+      <c r="B84" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E84" s="2"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B85" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="13" t="s">
+      <c r="A85" s="9">
+        <v>4</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E85" s="7"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B87" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D86" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E86" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
-        <v>1</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
-        <v>2</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E88" s="2"/>
+      <c r="B88" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
+        <v>1</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <v>2</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
         <v>3</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E89" s="2"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B91" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="13" t="s">
+      <c r="B91" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E91" s="2"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B93" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B92" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D92" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E92" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
-        <v>1</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="2">
-        <v>2</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E94" s="2"/>
+      <c r="B94" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
+        <v>1</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>2</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
         <v>3</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C95" s="2" t="s">
+      <c r="B97" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E97" s="2"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B99" t="s">
         <v>65</v>
       </c>
-      <c r="D95" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E95" s="2"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B97" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="13" t="s">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B98" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C98" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D98" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E98" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="2">
-        <v>1</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="2">
-        <v>2</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E100" s="2"/>
+      <c r="B100" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="8">
+      <c r="A101" s="2">
+        <v>1</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
+        <v>2</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E102" s="2"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="8">
         <v>3</v>
       </c>
-      <c r="B101" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C101" s="8" t="s">
+      <c r="B103" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E101" s="2"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="8">
+      <c r="C103" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="8">
         <v>4</v>
       </c>
-      <c r="B102" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C102" s="8" t="s">
+      <c r="B104" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E102" s="2"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B104" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="13" t="s">
+      <c r="C104" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E104" s="2"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B106" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B105" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C105" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D105" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E105" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="2">
-        <v>1</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="2">
-        <v>2</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E107" s="2"/>
+      <c r="B107" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
+        <v>1</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <v>2</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E109" s="2"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
         <v>3</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E108" s="2"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="13" t="s">
+      <c r="B110" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E110" s="2"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B112" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B111" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C111" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D111" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E111" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="2">
-        <v>1</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="2">
-        <v>2</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E113" s="2"/>
+      <c r="B113" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
+        <v>1</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
+        <v>2</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E115" s="2"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
         <v>3</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E114" s="2"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B116" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B117" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C117" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D117" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E117" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="2">
-        <v>1</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="2">
-        <v>2</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E119" s="2"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="2">
-        <v>3</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E120" s="2"/>
+      <c r="B116" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E116" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/테이블 구성.xlsx
+++ b/테이블 구성.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-uruk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2599F1-19AF-42C4-AD19-06043E2D2B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BACC36-F9DD-4C6E-8BBA-B2FC6D3CFC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{59F6D182-FAEC-4BF3-A690-25A750217E18}"/>
+    <workbookView xWindow="46215" yWindow="-2220" windowWidth="25365" windowHeight="18510" activeTab="2" xr2:uid="{59F6D182-FAEC-4BF3-A690-25A750217E18}"/>
   </bookViews>
   <sheets>
     <sheet name="game-data" sheetId="3" r:id="rId1"/>
@@ -453,7 +453,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="320">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -683,10 +683,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이템 카테고리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>낚싯대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -911,14 +907,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지불방식 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지불방식 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>level_limit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -951,10 +939,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>boat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>레벨업을 위해 필요한 경험치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -983,42 +967,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>preparation_category_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>낚시대나 릴과 같은 아이템에 대한 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>채비 카테고리 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이템 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>preparation_category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>preparation_category_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채비 카테고리 명칭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이템 id(PK)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>재화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>store</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1039,10 +999,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>채비 카테고리 id (preparation_id와 preparation_category_id는 복합키이면서 unique키)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>피로도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1094,18 +1050,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인벤토리 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>inventory_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인벤토리 타입 이름(물고기인지 아이템인지)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>inventory_type_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1222,10 +1170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>account_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>로그인을 위한 사용자 계정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1334,18 +1278,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>boat_durability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>보로롱24호 내구도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>boat_fuel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>보로롱24호 연료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1374,10 +1310,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>book</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>어류 도감</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1390,10 +1322,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fish_auction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>물고기를 사고 판 기록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1502,10 +1430,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>선물함 - preparation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>날짜, 시간(같은 날짜, 같은 시(hour)이면 ) -&gt; 날짜를 통해서 조수간만차 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1514,10 +1438,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>level_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>rod_level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1630,10 +1550,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>업그레이드 가능 아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>upgrade_available</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1698,6 +1614,122 @@
   </si>
   <si>
     <t>fish -&gt; 0, item -&gt; 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freshness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신선도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default 3, 하루 지날 때마다 update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preparation_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preparation_type_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채비 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채비 타입 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채비 타입 명칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preparation_type_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채비 타입 id (preparation_id와 preparation_type_id는 복합키이면서 unique키)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화(골드, 피로도, 진주)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default 200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선물함 - item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>received</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">안 받았는지(0) 받았는지(1) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리 타입 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_boat_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_boat_durability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_boat_fuel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_book</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_fish_auction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업그레이드 가능 아이템, 0 -&gt; 업그레이드 가능 아이템, 1 -&gt; 업그레이드 불가능 아이템</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2234,10 +2266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF64E5F-28AE-4868-B332-37029AACFFCF}">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2251,10 +2283,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>192</v>
+        <v>316</v>
       </c>
       <c r="B1" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2268,10 +2300,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2279,16 +2311,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2296,13 +2328,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -2311,13 +2343,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -2326,22 +2358,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="B8" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -2355,10 +2387,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -2366,16 +2398,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -2383,82 +2415,92 @@
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E11" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E12" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E13" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E14" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E15" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="B17" t="s">
-        <v>262</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -2472,10 +2514,10 @@
         <v>2</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -2483,16 +2525,16 @@
         <v>1</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -2503,13 +2545,13 @@
         <v>35</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -2517,810 +2559,915 @@
         <v>3</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="12">
+        <v>4</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="B23" t="s">
-        <v>217</v>
-      </c>
+      <c r="A23" s="12"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>1</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>152</v>
+      <c r="B25" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E26" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>220</v>
+        <v>313</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
+        <v>3</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
         <v>4</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="B30" t="s">
-        <v>231</v>
-      </c>
+      <c r="B29" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B31" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>1</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>152</v>
+      <c r="B32" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>3</v>
+        <v>187</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>85</v>
+        <v>198</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
+        <v>2</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="C34" s="2" t="s">
-        <v>233</v>
+        <v>84</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>3</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="B36" t="s">
-        <v>235</v>
-      </c>
+      <c r="C35" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E35" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="B37" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <v>1</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>152</v>
+      <c r="B38" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E39" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
+        <v>2</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
         <v>3</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="B42" t="s">
-        <v>240</v>
+      <c r="B41" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B43" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
-        <v>1</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>152</v>
+      <c r="B44" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>241</v>
+        <v>187</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E46" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
+        <v>4</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
         <v>5</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="B50" t="s">
-        <v>248</v>
-      </c>
+      <c r="B49" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E49" s="2"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B51" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
-        <v>1</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>152</v>
+      <c r="B52" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>3</v>
+        <v>187</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>85</v>
+        <v>198</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
+        <v>2</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C54" s="2" t="s">
-        <v>249</v>
+        <v>84</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>167</v>
+        <v>32</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E55" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>241</v>
+        <v>154</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>152</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="E56" s="2"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>117</v>
+        <v>223</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E57" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E58" s="2"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
+        <v>7</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
         <v>8</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="2"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
+      <c r="C60" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="B61" t="s">
-        <v>225</v>
-      </c>
+      <c r="A61" s="2"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B62" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
-        <v>1</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>152</v>
+      <c r="B63" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E64" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>311</v>
+        <v>198</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="E65" s="2"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E66" s="2"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
+        <v>4</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
         <v>5</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E67" s="2"/>
+      <c r="B68" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E68" s="2"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B69" t="s">
-        <v>287</v>
-      </c>
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="20" t="s">
+      <c r="A70" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D70" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="E70" s="20" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="7">
-        <v>1</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="D71" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="E71" s="21" t="s">
-        <v>152</v>
+      <c r="B71" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
-        <v>2</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="D72" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="E72" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
+        <v>2</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="E73" s="7"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B75" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E76" s="20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="7">
+        <v>1</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D77" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E77" s="21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="7">
+        <v>2</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E78" s="7"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="7">
         <v>3</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B79" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C73" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D73" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="E73" s="7"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="7">
+      <c r="C79" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E79" s="7"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="7">
         <v>4</v>
       </c>
-      <c r="B74" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="7">
+      <c r="B80" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="7">
         <v>5</v>
       </c>
-      <c r="B75" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="7">
+      <c r="B81" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="7">
         <v>6</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B82" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C82" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C76" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="D82" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B84" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86" t="s">
+        <v>271</v>
+      </c>
+      <c r="C86" t="s">
+        <v>272</v>
+      </c>
+      <c r="D86" t="s">
+        <v>140</v>
+      </c>
+      <c r="E86" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>2</v>
+      </c>
+      <c r="B87" t="s">
+        <v>187</v>
+      </c>
+      <c r="C87" t="s">
+        <v>198</v>
+      </c>
+      <c r="D87" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>3</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
+        <v>84</v>
+      </c>
+      <c r="D88" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>4</v>
+      </c>
+      <c r="B89" t="s">
+        <v>291</v>
+      </c>
+      <c r="C89" t="s">
+        <v>292</v>
+      </c>
+      <c r="D89" t="s">
+        <v>140</v>
+      </c>
+      <c r="E89" t="s">
         <v>293</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>1</v>
-      </c>
-      <c r="B80" t="s">
-        <v>291</v>
-      </c>
-      <c r="C80" t="s">
-        <v>292</v>
-      </c>
-      <c r="D80" t="s">
-        <v>151</v>
-      </c>
-      <c r="E80" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>2</v>
-      </c>
-      <c r="B81" t="s">
-        <v>201</v>
-      </c>
-      <c r="C81" t="s">
-        <v>212</v>
-      </c>
-      <c r="D81" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>3</v>
-      </c>
-      <c r="B82" t="s">
-        <v>3</v>
-      </c>
-      <c r="C82" t="s">
-        <v>85</v>
-      </c>
-      <c r="D82" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3332,10 +3479,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3242E66-B909-433E-B55E-F4A11B1BEF69}">
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3363,10 +3510,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3377,13 +3524,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="6"/>
@@ -3398,10 +3545,10 @@
         <v>32</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -3416,7 +3563,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -3431,7 +3578,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -3446,7 +3593,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -3458,10 +3605,10 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -3476,7 +3623,7 @@
         <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -3491,7 +3638,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -3506,7 +3653,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -3515,13 +3662,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -3530,7 +3677,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -3544,10 +3691,10 @@
         <v>2</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -3558,13 +3705,13 @@
         <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3578,7 +3725,7 @@
         <v>21</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="E17" s="2"/>
     </row>
@@ -3593,7 +3740,7 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E18" s="2"/>
     </row>
@@ -3613,10 +3760,10 @@
         <v>2</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -3627,13 +3774,13 @@
         <v>32</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -3647,7 +3794,7 @@
         <v>27</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E23" s="2"/>
     </row>
@@ -3662,7 +3809,7 @@
         <v>28</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E24" s="2"/>
     </row>
@@ -3677,7 +3824,7 @@
         <v>29</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -3689,10 +3836,10 @@
         <v>19</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E26" s="2"/>
     </row>
@@ -3704,10 +3851,10 @@
         <v>20</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E27" s="2"/>
     </row>
@@ -3716,13 +3863,13 @@
         <v>7</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E28" s="2"/>
     </row>
@@ -3731,22 +3878,22 @@
         <v>8</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>107</v>
-      </c>
       <c r="D29" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -3760,10 +3907,10 @@
         <v>2</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -3771,16 +3918,16 @@
         <v>1</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="D33" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -3788,22 +3935,22 @@
         <v>2</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="D34" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" t="s">
         <v>91</v>
-      </c>
-      <c r="B36" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -3817,10 +3964,10 @@
         <v>2</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -3828,16 +3975,16 @@
         <v>1</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -3845,16 +3992,16 @@
         <v>2</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -3862,13 +4009,13 @@
         <v>3</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="D40" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E40" s="2"/>
     </row>
@@ -3877,22 +4024,22 @@
         <v>4</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E41" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B43" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -3906,10 +4053,10 @@
         <v>2</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -3920,13 +4067,13 @@
         <v>32</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -3937,21 +4084,21 @@
         <v>35</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="B48" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -3965,10 +4112,10 @@
         <v>2</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -3976,16 +4123,16 @@
         <v>1</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -3993,13 +4140,13 @@
         <v>2</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E51" s="2"/>
     </row>
@@ -4008,22 +4155,22 @@
         <v>3</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E52" s="2"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>161</v>
+        <v>236</v>
       </c>
       <c r="B54" t="s">
-        <v>160</v>
+        <v>237</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -4037,10 +4184,10 @@
         <v>2</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -4048,16 +4195,16 @@
         <v>1</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -4065,22 +4212,22 @@
         <v>2</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>163</v>
+        <v>238</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>162</v>
+        <v>239</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E57" s="2"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="B59" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -4094,10 +4241,10 @@
         <v>2</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -4105,16 +4252,16 @@
         <v>1</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -4122,22 +4269,22 @@
         <v>2</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E62" s="2"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>258</v>
+        <v>204</v>
       </c>
       <c r="B64" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -4151,10 +4298,10 @@
         <v>2</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -4162,16 +4309,16 @@
         <v>1</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>199</v>
+        <v>99</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -4179,87 +4326,92 @@
         <v>2</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>260</v>
+        <v>101</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>261</v>
+        <v>102</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="E67" s="2"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B69" t="s">
-        <v>274</v>
-      </c>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>3</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E68" s="2"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B70" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
-        <v>1</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>152</v>
+      <c r="B71" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>103</v>
+        <v>302</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E72" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>105</v>
+        <v>303</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4271,10 +4423,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFF3889-4DE1-4EDC-BE51-A4C2BB00F684}">
-  <dimension ref="A1:G116"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4288,10 +4440,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -4305,10 +4457,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -4316,16 +4468,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -4336,10 +4488,10 @@
         <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -4348,13 +4500,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -4363,22 +4515,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>136</v>
+        <v>295</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -4392,10 +4544,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -4403,16 +4555,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>132</v>
+        <v>296</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>134</v>
+        <v>298</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -4420,13 +4572,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>137</v>
+        <v>300</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>138</v>
+        <v>299</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -4451,10 +4603,10 @@
         <v>2</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -4465,13 +4617,13 @@
         <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -4479,13 +4631,13 @@
         <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E16" s="2"/>
     </row>
@@ -4494,13 +4646,13 @@
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>132</v>
+        <v>296</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>146</v>
+        <v>301</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E17" s="2"/>
     </row>
@@ -4511,10 +4663,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -4528,10 +4680,10 @@
         <v>2</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -4539,16 +4691,16 @@
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -4556,340 +4708,342 @@
         <v>2</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="2">
+        <v>3</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B24" t="s">
-        <v>58</v>
-      </c>
+      <c r="A24" s="2">
+        <v>4</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="7"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>2</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E27" s="2"/>
+      <c r="B27" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E28" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>4</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>67</v>
+        <v>2</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B31" t="s">
-        <v>37</v>
-      </c>
+      <c r="A30" s="2">
+        <v>3</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E30" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B32" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>1</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>152</v>
+      <c r="B33" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E34" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
+        <v>2</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="16">
         <v>3</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E35" s="2"/>
+      <c r="B36" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="E36" s="16"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B37" t="s">
-        <v>267</v>
-      </c>
+      <c r="A37" s="17">
+        <v>4</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E37" s="19"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>150</v>
-      </c>
+      <c r="A38" s="7">
+        <v>5</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>1</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>152</v>
-      </c>
+      <c r="A39" s="7">
+        <v>6</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E39" s="7"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
-        <v>2</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>152</v>
-      </c>
+      <c r="A40" s="9">
+        <v>7</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E40" s="7"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="16">
-        <v>3</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="E41" s="16"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="7"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="17">
-        <v>4</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="E42" s="19"/>
+      <c r="A42" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="9"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="7">
-        <v>5</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E43" s="7"/>
+      <c r="A43" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>139</v>
+      </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="7">
-        <v>6</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="E44" s="7"/>
+      <c r="A44" s="8">
+        <v>1</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="9">
-        <v>7</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E45" s="7"/>
+      <c r="A45" s="8">
+        <v>2</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
+      <c r="D46" s="7"/>
       <c r="E46" s="7"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" s="9"/>
+        <v>166</v>
+      </c>
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
@@ -4902,885 +5056,821 @@
         <v>2</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="8">
-        <v>1</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>67</v>
+      <c r="A49" s="2">
+        <v>1</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="8">
-        <v>2</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C50" s="8" t="s">
+      <c r="A50" s="2">
+        <v>2</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>3</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>4</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="8">
+        <v>1</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="8">
+        <v>2</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="8">
+        <v>3</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="D58" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="8">
+        <v>4</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="12">
+        <v>5</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E60" s="7"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="10" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
-        <v>1</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
-        <v>2</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="12" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
+      <c r="B63" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>1</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>2</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
         <v>3</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+      <c r="B66" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
         <v>4</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="10" t="s">
+      <c r="B67" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B69" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B60" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="8">
-        <v>1</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="8">
-        <v>2</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="8">
-        <v>3</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="8">
-        <v>4</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="12">
-        <v>5</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="E65" s="7"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B67" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
-        <v>1</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
-        <v>2</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E70" s="2"/>
+      <c r="B70" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E71" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E72" s="2"/>
     </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>3</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E73" s="2"/>
+    </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B74" t="s">
-        <v>51</v>
-      </c>
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="G75" s="14"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B75" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="G75" s="14"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
-        <v>1</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>152</v>
+      <c r="B76" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E77" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
+        <v>2</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
         <v>3</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
+      <c r="B79" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
-        <v>271</v>
+      <c r="A80" s="9">
+        <v>4</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E80" s="7"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B82" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B81" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
-        <v>1</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
-        <v>2</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>152</v>
+      <c r="B83" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
+        <v>1</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>2</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
         <v>3</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E84" s="2"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="9">
-        <v>4</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E85" s="7"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B87" t="s">
-        <v>61</v>
-      </c>
+      <c r="B86" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E86" s="2"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B88" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B88" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
-        <v>1</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>152</v>
+      <c r="B89" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E90" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
+        <v>2</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
         <v>3</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E91" s="2"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B93" t="s">
-        <v>56</v>
-      </c>
+      <c r="B92" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E92" s="2"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B94" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B94" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D94" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E94" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
-        <v>1</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>152</v>
+      <c r="B95" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>62</v>
+        <v>257</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E96" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
+        <v>2</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E97" s="2"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="8">
         <v>3</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E97" s="2"/>
+      <c r="B98" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E98" s="2"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B99" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="10" t="s">
+      <c r="A99" s="8">
+        <v>4</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E99" s="2"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B101" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B100" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D100" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E100" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="2">
-        <v>1</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="2">
-        <v>2</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E102" s="2"/>
+      <c r="B102" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="8">
+      <c r="A103" s="2">
+        <v>1</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
+        <v>2</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
         <v>3</v>
       </c>
-      <c r="B103" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E103" s="2"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="8">
-        <v>4</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E104" s="2"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B106" t="s">
-        <v>297</v>
-      </c>
+      <c r="B105" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E105" s="2"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="10" t="s">
+      <c r="A107" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B107" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B107" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D107" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E107" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="2">
-        <v>1</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>152</v>
+      <c r="B108" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>302</v>
+        <v>108</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E109" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
+        <v>2</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E110" s="2"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
         <v>3</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E110" s="2"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B112" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B113" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D113" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E113" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="2">
-        <v>1</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="2">
-        <v>2</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E115" s="2"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="2">
-        <v>3</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E116" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E111" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/테이블 구성.xlsx
+++ b/테이블 구성.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-uruk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BACC36-F9DD-4C6E-8BBA-B2FC6D3CFC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF80EFE9-C73C-44A8-9AFB-B6E575411B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46215" yWindow="-2220" windowWidth="25365" windowHeight="18510" activeTab="2" xr2:uid="{59F6D182-FAEC-4BF3-A690-25A750217E18}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{59F6D182-FAEC-4BF3-A690-25A750217E18}"/>
   </bookViews>
   <sheets>
     <sheet name="game-data" sheetId="3" r:id="rId1"/>
@@ -453,7 +453,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="321">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1474,10 +1474,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>출항에 필요한 피로도(won, 장소의 거리에 따라 출항비용이 달라진다. 멀수록 비쌈)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>낚싯줄 id (번호가 높아질수록 두께가 두꺼워진다)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1730,6 +1726,14 @@
   </si>
   <si>
     <t>업그레이드 가능 아이템, 0 -&gt; 업그레이드 가능 아이템, 1 -&gt; 업그레이드 불가능 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출항에 필요한 피로도(장소의 거리에 따라 출항비용이 달라진다. 멀수록 비쌈)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2268,11 +2272,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF64E5F-28AE-4868-B332-37029AACFFCF}">
   <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="29.75" customWidth="1"/>
@@ -2281,15 +2285,15 @@
     <col min="5" max="5" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -2306,7 +2310,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2323,7 +2327,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2338,7 +2342,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2353,7 +2357,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2368,7 +2372,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="11" t="s">
         <v>189</v>
       </c>
@@ -2376,7 +2380,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>0</v>
       </c>
@@ -2393,7 +2397,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -2410,7 +2414,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>2</v>
       </c>
@@ -2424,10 +2428,10 @@
         <v>140</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>3</v>
       </c>
@@ -2441,10 +2445,10 @@
         <v>140</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>4</v>
       </c>
@@ -2458,10 +2462,10 @@
         <v>140</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -2475,10 +2479,10 @@
         <v>140</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>6</v>
       </c>
@@ -2492,18 +2496,18 @@
         <v>140</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="11" t="s">
         <v>197</v>
       </c>
       <c r="B17" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="10" t="s">
         <v>0</v>
       </c>
@@ -2520,7 +2524,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -2537,7 +2541,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="2">
         <v>2</v>
       </c>
@@ -2554,7 +2558,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>3</v>
       </c>
@@ -2571,30 +2575,30 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="12">
         <v>4</v>
       </c>
       <c r="B22" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>309</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>310</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>144</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="12"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="11" t="s">
         <v>202</v>
       </c>
@@ -2602,7 +2606,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="10" t="s">
         <v>0</v>
       </c>
@@ -2619,7 +2623,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>1</v>
       </c>
@@ -2636,12 +2640,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>2</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>205</v>
@@ -2651,12 +2655,12 @@
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>3</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>206</v>
@@ -2666,12 +2670,12 @@
       </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>4</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>207</v>
@@ -2681,15 +2685,15 @@
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B31" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="10" t="s">
         <v>0</v>
       </c>
@@ -2706,7 +2710,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>1</v>
       </c>
@@ -2723,7 +2727,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>2</v>
       </c>
@@ -2740,7 +2744,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
         <v>3</v>
       </c>
@@ -2755,15 +2759,15 @@
       </c>
       <c r="E35" s="2"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B37" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="10" t="s">
         <v>0</v>
       </c>
@@ -2780,7 +2784,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="2">
         <v>1</v>
       </c>
@@ -2797,7 +2801,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="2">
         <v>2</v>
       </c>
@@ -2812,7 +2816,7 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="2">
         <v>3</v>
       </c>
@@ -2829,7 +2833,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="11" t="s">
         <v>221</v>
       </c>
@@ -2837,7 +2841,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" s="10" t="s">
         <v>0</v>
       </c>
@@ -2854,7 +2858,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" s="2">
         <v>1</v>
       </c>
@@ -2871,7 +2875,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" s="2">
         <v>2</v>
       </c>
@@ -2888,7 +2892,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" s="2">
         <v>3</v>
       </c>
@@ -2903,7 +2907,7 @@
       </c>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" s="2">
         <v>4</v>
       </c>
@@ -2918,7 +2922,7 @@
       </c>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="2">
         <v>5</v>
       </c>
@@ -2933,7 +2937,7 @@
       </c>
       <c r="E49" s="2"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" s="11" t="s">
         <v>229</v>
       </c>
@@ -2941,7 +2945,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" s="10" t="s">
         <v>0</v>
       </c>
@@ -2958,7 +2962,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" s="2">
         <v>1</v>
       </c>
@@ -2975,7 +2979,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" s="2">
         <v>2</v>
       </c>
@@ -2992,7 +2996,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" s="2">
         <v>3</v>
       </c>
@@ -3009,7 +3013,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" s="2">
         <v>4</v>
       </c>
@@ -3024,7 +3028,7 @@
       </c>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" s="2">
         <v>5</v>
       </c>
@@ -3041,7 +3045,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" s="2">
         <v>6</v>
       </c>
@@ -3056,7 +3060,7 @@
       </c>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" s="2">
         <v>7</v>
       </c>
@@ -3071,7 +3075,7 @@
       </c>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" s="2">
         <v>8</v>
       </c>
@@ -3086,14 +3090,14 @@
       </c>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" s="2"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" s="11" t="s">
         <v>208</v>
       </c>
@@ -3101,7 +3105,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" s="10" t="s">
         <v>0</v>
       </c>
@@ -3118,7 +3122,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" s="2">
         <v>1</v>
       </c>
@@ -3135,7 +3139,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" s="2">
         <v>2</v>
       </c>
@@ -3150,7 +3154,7 @@
       </c>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" s="2">
         <v>3</v>
       </c>
@@ -3158,14 +3162,14 @@
         <v>148</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>140</v>
       </c>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" s="2">
         <v>4</v>
       </c>
@@ -3173,14 +3177,14 @@
         <v>35</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>140</v>
       </c>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" s="2">
         <v>5</v>
       </c>
@@ -3195,14 +3199,14 @@
       </c>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70" s="13" t="s">
         <v>149</v>
       </c>
@@ -3211,7 +3215,7 @@
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71" s="10" t="s">
         <v>0</v>
       </c>
@@ -3228,7 +3232,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" s="7">
         <v>1</v>
       </c>
@@ -3245,7 +3249,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73" s="7">
         <v>2</v>
       </c>
@@ -3253,22 +3257,22 @@
         <v>150</v>
       </c>
       <c r="C73" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="D73" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="D73" s="9" t="s">
-        <v>312</v>
-      </c>
       <c r="E73" s="7"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B75" t="s">
         <v>266</v>
       </c>
-      <c r="B75" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76" s="20" t="s">
         <v>0</v>
       </c>
@@ -3285,15 +3289,15 @@
         <v>139</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77" s="7">
         <v>1</v>
       </c>
       <c r="B77" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C77" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="D77" s="21" t="s">
         <v>140</v>
@@ -3302,7 +3306,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78" s="7">
         <v>2</v>
       </c>
@@ -3317,7 +3321,7 @@
       </c>
       <c r="E78" s="7"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79" s="7">
         <v>3</v>
       </c>
@@ -3332,24 +3336,24 @@
       </c>
       <c r="E79" s="7"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80" s="7">
         <v>4</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>144</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81" s="7">
         <v>5</v>
       </c>
@@ -3363,10 +3367,10 @@
         <v>140</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82" s="7">
         <v>6</v>
       </c>
@@ -3380,18 +3384,18 @@
         <v>140</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B84" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85" s="10" t="s">
         <v>0</v>
       </c>
@@ -3408,15 +3412,15 @@
         <v>139</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>1</v>
       </c>
       <c r="B86" t="s">
+        <v>270</v>
+      </c>
+      <c r="C86" t="s">
         <v>271</v>
-      </c>
-      <c r="C86" t="s">
-        <v>272</v>
       </c>
       <c r="D86" t="s">
         <v>140</v>
@@ -3425,7 +3429,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>2</v>
       </c>
@@ -3439,7 +3443,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>3</v>
       </c>
@@ -3453,21 +3457,21 @@
         <v>140</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>4</v>
       </c>
       <c r="B89" t="s">
+        <v>290</v>
+      </c>
+      <c r="C89" t="s">
         <v>291</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
+        <v>140</v>
+      </c>
+      <c r="E89" t="s">
         <v>292</v>
-      </c>
-      <c r="D89" t="s">
-        <v>140</v>
-      </c>
-      <c r="E89" t="s">
-        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -3481,25 +3485,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3242E66-B909-433E-B55E-F4A11B1BEF69}">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70:E74"/>
+    <sheetView topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" customWidth="1"/>
     <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="3" width="70.625" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="3" max="3" width="70.58203125" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" customWidth="1"/>
+    <col min="5" max="5" width="18.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -3516,7 +3520,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -3537,7 +3541,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3552,7 +3556,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -3567,7 +3571,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -3582,7 +3586,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -3597,7 +3601,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -3612,7 +3616,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -3627,7 +3631,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -3642,7 +3646,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -3657,7 +3661,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -3672,7 +3676,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -3680,7 +3684,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="10" t="s">
         <v>0</v>
       </c>
@@ -3697,7 +3701,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -3714,7 +3718,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>2</v>
       </c>
@@ -3729,7 +3733,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>3</v>
       </c>
@@ -3744,12 +3748,12 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="10" t="s">
         <v>0</v>
       </c>
@@ -3766,7 +3770,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <v>1</v>
       </c>
@@ -3783,7 +3787,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
         <v>2</v>
       </c>
@@ -3798,7 +3802,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
         <v>3</v>
       </c>
@@ -3813,7 +3817,7 @@
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
         <v>4</v>
       </c>
@@ -3828,7 +3832,7 @@
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
         <v>5</v>
       </c>
@@ -3836,14 +3840,14 @@
         <v>19</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>255</v>
+        <v>319</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>140</v>
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
         <v>6</v>
       </c>
@@ -3858,7 +3862,7 @@
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
         <v>7</v>
       </c>
@@ -3873,7 +3877,7 @@
       </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
         <v>8</v>
       </c>
@@ -3888,7 +3892,7 @@
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>74</v>
       </c>
@@ -3896,7 +3900,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="10" t="s">
         <v>0</v>
       </c>
@@ -3913,7 +3917,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>1</v>
       </c>
@@ -3930,7 +3934,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>2</v>
       </c>
@@ -3945,7 +3949,7 @@
       </c>
       <c r="E34" s="2"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>90</v>
       </c>
@@ -3953,7 +3957,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="10" t="s">
         <v>0</v>
       </c>
@@ -3970,7 +3974,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="2">
         <v>1</v>
       </c>
@@ -3987,7 +3991,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="2">
         <v>2</v>
       </c>
@@ -4004,7 +4008,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="2">
         <v>3</v>
       </c>
@@ -4019,7 +4023,7 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="2">
         <v>4</v>
       </c>
@@ -4034,7 +4038,7 @@
       </c>
       <c r="E41" s="2"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>120</v>
       </c>
@@ -4042,7 +4046,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" s="10" t="s">
         <v>0</v>
       </c>
@@ -4059,7 +4063,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" s="2">
         <v>1</v>
       </c>
@@ -4076,7 +4080,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" s="2">
         <v>2</v>
       </c>
@@ -4093,15 +4097,15 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B48" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="10" t="s">
         <v>0</v>
       </c>
@@ -4118,7 +4122,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" s="2">
         <v>1</v>
       </c>
@@ -4135,7 +4139,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" s="2">
         <v>2</v>
       </c>
@@ -4150,7 +4154,7 @@
       </c>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" s="2">
         <v>3</v>
       </c>
@@ -4165,7 +4169,7 @@
       </c>
       <c r="E52" s="2"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>236</v>
       </c>
@@ -4173,7 +4177,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" s="10" t="s">
         <v>0</v>
       </c>
@@ -4190,7 +4194,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" s="2">
         <v>1</v>
       </c>
@@ -4207,7 +4211,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" s="2">
         <v>2</v>
       </c>
@@ -4222,7 +4226,7 @@
       </c>
       <c r="E57" s="2"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>240</v>
       </c>
@@ -4230,7 +4234,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" s="10" t="s">
         <v>0</v>
       </c>
@@ -4247,7 +4251,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" s="2">
         <v>1</v>
       </c>
@@ -4264,7 +4268,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" s="2">
         <v>2</v>
       </c>
@@ -4279,7 +4283,7 @@
       </c>
       <c r="E62" s="2"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>204</v>
       </c>
@@ -4287,7 +4291,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" s="10" t="s">
         <v>0</v>
       </c>
@@ -4304,7 +4308,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" s="2">
         <v>1</v>
       </c>
@@ -4321,7 +4325,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" s="2">
         <v>2</v>
       </c>
@@ -4336,7 +4340,7 @@
       </c>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" s="2">
         <v>3</v>
       </c>
@@ -4351,15 +4355,15 @@
       </c>
       <c r="E68" s="2"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B70" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71" s="10" t="s">
         <v>0</v>
       </c>
@@ -4376,7 +4380,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" s="2">
         <v>1</v>
       </c>
@@ -4384,7 +4388,7 @@
         <v>152</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>140</v>
@@ -4393,7 +4397,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73" s="2">
         <v>2</v>
       </c>
@@ -4401,14 +4405,14 @@
         <v>153</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>143</v>
       </c>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -4425,20 +4429,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFF3889-4DE1-4EDC-BE51-A4C2BB00F684}">
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.625" customWidth="1"/>
-    <col min="2" max="2" width="49.625" customWidth="1"/>
+    <col min="1" max="1" width="24.58203125" customWidth="1"/>
+    <col min="2" max="2" width="49.58203125" customWidth="1"/>
     <col min="3" max="3" width="108" customWidth="1"/>
     <col min="4" max="4" width="17.25" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -4446,7 +4450,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -4463,7 +4467,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -4480,7 +4484,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -4495,7 +4499,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -4510,7 +4514,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -4525,15 +4529,15 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B8" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
         <v>0</v>
       </c>
@@ -4550,15 +4554,15 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>140</v>
@@ -4567,32 +4571,32 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>143</v>
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="10" t="s">
         <v>0</v>
       </c>
@@ -4609,7 +4613,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -4626,7 +4630,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>2</v>
       </c>
@@ -4641,27 +4645,27 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>140</v>
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>155</v>
       </c>
@@ -4669,7 +4673,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="10" t="s">
         <v>0</v>
       </c>
@@ -4686,7 +4690,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -4703,7 +4707,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>2</v>
       </c>
@@ -4718,7 +4722,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>3</v>
       </c>
@@ -4733,7 +4737,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="2">
         <v>4</v>
       </c>
@@ -4748,14 +4752,14 @@
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="7"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>163</v>
       </c>
@@ -4763,7 +4767,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="10" t="s">
         <v>0</v>
       </c>
@@ -4780,7 +4784,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
         <v>1</v>
       </c>
@@ -4797,7 +4801,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>2</v>
       </c>
@@ -4812,7 +4816,7 @@
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>3</v>
       </c>
@@ -4827,7 +4831,7 @@
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>246</v>
       </c>
@@ -4835,7 +4839,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="10" t="s">
         <v>0</v>
       </c>
@@ -4852,7 +4856,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="2">
         <v>1</v>
       </c>
@@ -4869,7 +4873,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
         <v>2</v>
       </c>
@@ -4886,7 +4890,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="16">
         <v>3</v>
       </c>
@@ -4901,7 +4905,7 @@
       </c>
       <c r="E36" s="16"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="17">
         <v>4</v>
       </c>
@@ -4909,14 +4913,14 @@
         <v>111</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>140</v>
       </c>
       <c r="E37" s="19"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="7">
         <v>5</v>
       </c>
@@ -4931,7 +4935,7 @@
       </c>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="7">
         <v>6</v>
       </c>
@@ -4946,29 +4950,29 @@
       </c>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="9">
         <v>7</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>140</v>
       </c>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>161</v>
       </c>
@@ -4979,7 +4983,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="10" t="s">
         <v>0</v>
       </c>
@@ -4998,7 +5002,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="8">
         <v>1</v>
       </c>
@@ -5015,7 +5019,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="8">
         <v>2</v>
       </c>
@@ -5030,14 +5034,14 @@
       </c>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>166</v>
       </c>
@@ -5045,7 +5049,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="10" t="s">
         <v>0</v>
       </c>
@@ -5062,7 +5066,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="2">
         <v>1</v>
       </c>
@@ -5070,7 +5074,7 @@
         <v>167</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>140</v>
@@ -5079,7 +5083,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="2">
         <v>2</v>
       </c>
@@ -5094,22 +5098,22 @@
       </c>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="2">
         <v>3</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>140</v>
       </c>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="2">
         <v>4</v>
       </c>
@@ -5124,14 +5128,14 @@
       </c>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="13" t="s">
         <v>249</v>
       </c>
@@ -5142,7 +5146,7 @@
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="10" t="s">
         <v>0</v>
       </c>
@@ -5162,7 +5166,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" s="8">
         <v>1</v>
       </c>
@@ -5179,7 +5183,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="8">
         <v>2</v>
       </c>
@@ -5196,7 +5200,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="8">
         <v>3</v>
       </c>
@@ -5211,7 +5215,7 @@
       </c>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" s="8">
         <v>4</v>
       </c>
@@ -5226,22 +5230,22 @@
       </c>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" s="12">
         <v>5</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>140</v>
       </c>
       <c r="E60" s="7"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>44</v>
       </c>
@@ -5249,7 +5253,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="10" t="s">
         <v>0</v>
       </c>
@@ -5266,7 +5270,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" s="2">
         <v>1</v>
       </c>
@@ -5283,7 +5287,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" s="2">
         <v>2</v>
       </c>
@@ -5298,7 +5302,7 @@
       </c>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" s="2">
         <v>3</v>
       </c>
@@ -5313,7 +5317,7 @@
       </c>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" s="2">
         <v>4</v>
       </c>
@@ -5324,11 +5328,11 @@
         <v>115</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>140</v>
+        <v>320</v>
       </c>
       <c r="E67" s="2"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>47</v>
       </c>
@@ -5336,7 +5340,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" s="10" t="s">
         <v>0</v>
       </c>
@@ -5353,7 +5357,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="2">
         <v>1</v>
       </c>
@@ -5370,7 +5374,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="2">
         <v>2</v>
       </c>
@@ -5385,12 +5389,12 @@
       </c>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="2">
         <v>3</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>63</v>
@@ -5400,14 +5404,14 @@
       </c>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>251</v>
       </c>
@@ -5416,7 +5420,7 @@
       </c>
       <c r="G75" s="14"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="10" t="s">
         <v>0</v>
       </c>
@@ -5433,7 +5437,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="2">
         <v>1</v>
       </c>
@@ -5450,7 +5454,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="2">
         <v>2</v>
       </c>
@@ -5467,7 +5471,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" s="2">
         <v>3</v>
       </c>
@@ -5482,22 +5486,22 @@
       </c>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" s="9">
         <v>4</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>140</v>
       </c>
       <c r="E80" s="7"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>173</v>
       </c>
@@ -5505,7 +5509,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A83" s="10" t="s">
         <v>0</v>
       </c>
@@ -5522,7 +5526,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84" s="2">
         <v>1</v>
       </c>
@@ -5539,7 +5543,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85" s="2">
         <v>2</v>
       </c>
@@ -5554,7 +5558,7 @@
       </c>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86" s="2">
         <v>3</v>
       </c>
@@ -5569,7 +5573,7 @@
       </c>
       <c r="E86" s="2"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>172</v>
       </c>
@@ -5577,7 +5581,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A89" s="10" t="s">
         <v>0</v>
       </c>
@@ -5594,7 +5598,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A90" s="2">
         <v>1</v>
       </c>
@@ -5611,7 +5615,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A91" s="2">
         <v>2</v>
       </c>
@@ -5626,7 +5630,7 @@
       </c>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A92" s="2">
         <v>3</v>
       </c>
@@ -5641,7 +5645,7 @@
       </c>
       <c r="E92" s="2"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>176</v>
       </c>
@@ -5649,7 +5653,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A95" s="10" t="s">
         <v>0</v>
       </c>
@@ -5666,7 +5670,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A96" s="2">
         <v>1</v>
       </c>
@@ -5674,7 +5678,7 @@
         <v>177</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>140</v>
@@ -5683,7 +5687,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A97" s="2">
         <v>2</v>
       </c>
@@ -5698,7 +5702,7 @@
       </c>
       <c r="E97" s="2"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98" s="8">
         <v>3</v>
       </c>
@@ -5713,7 +5717,7 @@
       </c>
       <c r="E98" s="2"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A99" s="8">
         <v>4</v>
       </c>
@@ -5728,15 +5732,15 @@
       </c>
       <c r="E99" s="2"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B101" t="s">
         <v>275</v>
       </c>
-      <c r="B101" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A102" s="10" t="s">
         <v>0</v>
       </c>
@@ -5753,15 +5757,15 @@
         <v>139</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103" s="2">
         <v>1</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>140</v>
@@ -5770,45 +5774,45 @@
         <v>141</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A104" s="2">
         <v>2</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>143</v>
       </c>
       <c r="E104" s="2"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A105" s="2">
         <v>3</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>284</v>
-      </c>
       <c r="D105" s="2" t="s">
         <v>140</v>
       </c>
       <c r="E105" s="2"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B107" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A108" s="10" t="s">
         <v>0</v>
       </c>
@@ -5825,12 +5829,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A109" s="2">
         <v>1</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>108</v>
@@ -5842,12 +5846,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A110" s="2">
         <v>2</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>109</v>
@@ -5857,12 +5861,12 @@
       </c>
       <c r="E110" s="2"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A111" s="2">
         <v>3</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>118</v>

--- a/테이블 구성.xlsx
+++ b/테이블 구성.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-uruk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF80EFE9-C73C-44A8-9AFB-B6E575411B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AA1E13-9E89-4AB4-AEA9-0333FDD2033D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{59F6D182-FAEC-4BF3-A690-25A750217E18}"/>
   </bookViews>
@@ -453,7 +453,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="322">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1734,6 +1734,10 @@
   </si>
   <si>
     <t>DECIMAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNIQUE 하면서 NOT NULL인데, PK(?)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2273,7 +2277,7 @@
   <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2370,7 +2374,9 @@
       <c r="D6" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="11" t="s">
@@ -3486,7 +3492,7 @@
   <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/테이블 구성.xlsx
+++ b/테이블 구성.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nayoonv\game-uruk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AA1E13-9E89-4AB4-AEA9-0333FDD2033D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C54110-8C09-461D-BAFD-D3CAD7D8DFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{59F6D182-FAEC-4BF3-A690-25A750217E18}"/>
+    <workbookView xWindow="28665" yWindow="-3285" windowWidth="38670" windowHeight="21270" xr2:uid="{59F6D182-FAEC-4BF3-A690-25A750217E18}"/>
   </bookViews>
   <sheets>
     <sheet name="game-data" sheetId="3" r:id="rId1"/>
@@ -453,7 +453,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="326">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1597,10 +1597,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NULL 허용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0 -&gt; 업그레이드 가능 아이템, 1 -&gt; 업그레이드 불가능 아이템</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1737,7 +1733,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UNIQUE 하면서 NOT NULL인데, PK(?)</t>
+    <t>인벤토리 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡은 날짜를 기준으로 freshness 체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_upgrade_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저별 업그레이드 가능 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value_for_level_up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨업을 위해 쌓은 업그레이드 수치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2274,13 +2290,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF64E5F-28AE-4868-B332-37029AACFFCF}">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="29.75" customWidth="1"/>
@@ -2289,15 +2305,15 @@
     <col min="5" max="5" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -2314,7 +2330,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2331,7 +2347,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2346,7 +2362,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2361,7 +2377,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2374,11 +2390,9 @@
       <c r="D6" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>189</v>
       </c>
@@ -2386,7 +2400,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>0</v>
       </c>
@@ -2403,7 +2417,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -2420,7 +2434,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2</v>
       </c>
@@ -2434,10 +2448,10 @@
         <v>140</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>3</v>
       </c>
@@ -2451,10 +2465,10 @@
         <v>140</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>4</v>
       </c>
@@ -2468,10 +2482,10 @@
         <v>140</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -2485,10 +2499,10 @@
         <v>140</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>6</v>
       </c>
@@ -2502,18 +2516,18 @@
         <v>140</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>197</v>
       </c>
       <c r="B17" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>0</v>
       </c>
@@ -2530,7 +2544,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -2547,7 +2561,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>2</v>
       </c>
@@ -2564,7 +2578,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>3</v>
       </c>
@@ -2581,30 +2595,30 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>4</v>
       </c>
       <c r="B22" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>308</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>309</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>144</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>202</v>
       </c>
@@ -2612,7 +2626,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>0</v>
       </c>
@@ -2629,7 +2643,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>1</v>
       </c>
@@ -2646,12 +2660,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>2</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>205</v>
@@ -2661,12 +2675,12 @@
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>3</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>206</v>
@@ -2676,12 +2690,12 @@
       </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>4</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>207</v>
@@ -2691,15 +2705,15 @@
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B31" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>0</v>
       </c>
@@ -2716,7 +2730,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>1</v>
       </c>
@@ -2733,7 +2747,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>2</v>
       </c>
@@ -2750,7 +2764,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>3</v>
       </c>
@@ -2765,15 +2779,15 @@
       </c>
       <c r="E35" s="2"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B37" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>0</v>
       </c>
@@ -2790,7 +2804,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>1</v>
       </c>
@@ -2807,7 +2821,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>2</v>
       </c>
@@ -2822,7 +2836,7 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>3</v>
       </c>
@@ -2839,7 +2853,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>221</v>
       </c>
@@ -2847,7 +2861,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>0</v>
       </c>
@@ -2864,7 +2878,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>1</v>
       </c>
@@ -2881,7 +2895,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>2</v>
       </c>
@@ -2898,7 +2912,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>3</v>
       </c>
@@ -2913,7 +2927,7 @@
       </c>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>4</v>
       </c>
@@ -2928,7 +2942,7 @@
       </c>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>5</v>
       </c>
@@ -2943,7 +2957,7 @@
       </c>
       <c r="E49" s="2"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>229</v>
       </c>
@@ -2951,7 +2965,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>0</v>
       </c>
@@ -2968,7 +2982,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>1</v>
       </c>
@@ -2985,7 +2999,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>2</v>
       </c>
@@ -3002,7 +3016,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>3</v>
       </c>
@@ -3019,7 +3033,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>4</v>
       </c>
@@ -3034,7 +3048,7 @@
       </c>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>5</v>
       </c>
@@ -3051,7 +3065,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>6</v>
       </c>
@@ -3066,7 +3080,7 @@
       </c>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>7</v>
       </c>
@@ -3081,7 +3095,7 @@
       </c>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>8</v>
       </c>
@@ -3096,14 +3110,14 @@
       </c>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
         <v>208</v>
       </c>
@@ -3111,7 +3125,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>0</v>
       </c>
@@ -3128,7 +3142,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>1</v>
       </c>
@@ -3145,7 +3159,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>2</v>
       </c>
@@ -3160,7 +3174,7 @@
       </c>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>3</v>
       </c>
@@ -3168,14 +3182,14 @@
         <v>148</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>140</v>
       </c>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>4</v>
       </c>
@@ -3183,14 +3197,14 @@
         <v>35</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>140</v>
       </c>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>5</v>
       </c>
@@ -3205,23 +3219,25 @@
       </c>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="B70" s="7"/>
+      <c r="B70" s="9" t="s">
+        <v>320</v>
+      </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
         <v>0</v>
       </c>
@@ -3238,7 +3254,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
         <v>1</v>
       </c>
@@ -3255,7 +3271,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
         <v>2</v>
       </c>
@@ -3263,14 +3279,14 @@
         <v>150</v>
       </c>
       <c r="C73" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="D73" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="D73" s="9" t="s">
-        <v>311</v>
-      </c>
       <c r="E73" s="7"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>265</v>
       </c>
@@ -3278,7 +3294,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="20" t="s">
         <v>0</v>
       </c>
@@ -3295,7 +3311,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="7">
         <v>1</v>
       </c>
@@ -3312,7 +3328,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
         <v>2</v>
       </c>
@@ -3327,7 +3343,7 @@
       </c>
       <c r="E78" s="7"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="7">
         <v>3</v>
       </c>
@@ -3342,7 +3358,7 @@
       </c>
       <c r="E79" s="7"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
         <v>4</v>
       </c>
@@ -3350,134 +3366,208 @@
         <v>273</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>144</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A81" s="7">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E83" s="20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="9">
+        <v>1</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C84" t="s">
+        <v>268</v>
+      </c>
+      <c r="D84" t="s">
+        <v>140</v>
+      </c>
+      <c r="E84" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="9">
+        <v>2</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C85" t="s">
+        <v>191</v>
+      </c>
+      <c r="D85" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>3</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C86" t="s">
+        <v>325</v>
+      </c>
+      <c r="D86" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="9">
+        <v>4</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C87" t="s">
+        <v>102</v>
+      </c>
+      <c r="D87" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B89" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91" t="s">
+        <v>270</v>
+      </c>
+      <c r="C91" t="s">
+        <v>271</v>
+      </c>
+      <c r="D91" t="s">
+        <v>140</v>
+      </c>
+      <c r="E91" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>2</v>
+      </c>
+      <c r="B92" t="s">
+        <v>187</v>
+      </c>
+      <c r="C92" t="s">
+        <v>198</v>
+      </c>
+      <c r="D92" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>3</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s">
+        <v>84</v>
+      </c>
+      <c r="D93" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>4</v>
+      </c>
+      <c r="B94" t="s">
+        <v>289</v>
+      </c>
+      <c r="C94" t="s">
+        <v>290</v>
+      </c>
+      <c r="D94" t="s">
+        <v>140</v>
+      </c>
+      <c r="E94" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95">
         <v>5</v>
       </c>
-      <c r="B81" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A82" s="7">
-        <v>6</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A84" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B84" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A85" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E85" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A86">
-        <v>1</v>
-      </c>
-      <c r="B86" t="s">
-        <v>270</v>
-      </c>
-      <c r="C86" t="s">
-        <v>271</v>
-      </c>
-      <c r="D86" t="s">
-        <v>140</v>
-      </c>
-      <c r="E86" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A87">
-        <v>2</v>
-      </c>
-      <c r="B87" t="s">
-        <v>187</v>
-      </c>
-      <c r="C87" t="s">
-        <v>198</v>
-      </c>
-      <c r="D87" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A88">
-        <v>3</v>
-      </c>
-      <c r="B88" t="s">
-        <v>3</v>
-      </c>
-      <c r="C88" t="s">
-        <v>84</v>
-      </c>
-      <c r="D88" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A89">
-        <v>4</v>
-      </c>
-      <c r="B89" t="s">
-        <v>290</v>
-      </c>
-      <c r="C89" t="s">
-        <v>291</v>
-      </c>
-      <c r="D89" t="s">
-        <v>140</v>
-      </c>
-      <c r="E89" t="s">
-        <v>292</v>
+      <c r="B95" t="s">
+        <v>215</v>
+      </c>
+      <c r="C95" t="s">
+        <v>216</v>
+      </c>
+      <c r="D95" t="s">
+        <v>201</v>
+      </c>
+      <c r="E95" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -3491,25 +3581,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3242E66-B909-433E-B55E-F4A11B1BEF69}">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
     <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="3" width="70.58203125" customWidth="1"/>
-    <col min="4" max="4" width="14.08203125" customWidth="1"/>
-    <col min="5" max="5" width="18.08203125" customWidth="1"/>
+    <col min="3" max="3" width="70.625" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -3526,7 +3616,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -3547,7 +3637,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3562,7 +3652,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -3577,7 +3667,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -3592,7 +3682,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -3607,7 +3697,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -3622,7 +3712,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -3637,7 +3727,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -3652,7 +3742,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -3667,7 +3757,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -3682,7 +3772,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -3690,7 +3780,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>0</v>
       </c>
@@ -3707,7 +3797,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -3724,7 +3814,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>2</v>
       </c>
@@ -3739,7 +3829,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>3</v>
       </c>
@@ -3754,12 +3844,12 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>0</v>
       </c>
@@ -3776,7 +3866,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>1</v>
       </c>
@@ -3793,7 +3883,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>2</v>
       </c>
@@ -3808,7 +3898,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>3</v>
       </c>
@@ -3823,7 +3913,7 @@
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>4</v>
       </c>
@@ -3838,7 +3928,7 @@
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>5</v>
       </c>
@@ -3846,14 +3936,14 @@
         <v>19</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>140</v>
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>6</v>
       </c>
@@ -3868,7 +3958,7 @@
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>7</v>
       </c>
@@ -3883,7 +3973,7 @@
       </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>8</v>
       </c>
@@ -3898,7 +3988,7 @@
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>74</v>
       </c>
@@ -3906,7 +3996,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>0</v>
       </c>
@@ -3923,7 +4013,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>1</v>
       </c>
@@ -3940,7 +4030,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>2</v>
       </c>
@@ -3955,7 +4045,7 @@
       </c>
       <c r="E34" s="2"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>90</v>
       </c>
@@ -3963,7 +4053,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>0</v>
       </c>
@@ -3980,7 +4070,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>1</v>
       </c>
@@ -3997,7 +4087,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>2</v>
       </c>
@@ -4014,7 +4104,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>3</v>
       </c>
@@ -4029,7 +4119,7 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>4</v>
       </c>
@@ -4044,7 +4134,7 @@
       </c>
       <c r="E41" s="2"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>120</v>
       </c>
@@ -4052,7 +4142,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>0</v>
       </c>
@@ -4069,7 +4159,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>1</v>
       </c>
@@ -4086,7 +4176,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>2</v>
       </c>
@@ -4103,15 +4193,15 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B48" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>0</v>
       </c>
@@ -4128,7 +4218,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>1</v>
       </c>
@@ -4145,7 +4235,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>2</v>
       </c>
@@ -4160,7 +4250,7 @@
       </c>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>3</v>
       </c>
@@ -4175,7 +4265,7 @@
       </c>
       <c r="E52" s="2"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>236</v>
       </c>
@@ -4183,7 +4273,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>0</v>
       </c>
@@ -4200,7 +4290,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>1</v>
       </c>
@@ -4217,7 +4307,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>2</v>
       </c>
@@ -4232,7 +4322,7 @@
       </c>
       <c r="E57" s="2"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>240</v>
       </c>
@@ -4240,7 +4330,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>0</v>
       </c>
@@ -4257,7 +4347,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>1</v>
       </c>
@@ -4274,7 +4364,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>2</v>
       </c>
@@ -4289,7 +4379,7 @@
       </c>
       <c r="E62" s="2"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>204</v>
       </c>
@@ -4297,7 +4387,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>0</v>
       </c>
@@ -4314,7 +4404,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>1</v>
       </c>
@@ -4331,7 +4421,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>2</v>
       </c>
@@ -4346,7 +4436,7 @@
       </c>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>3</v>
       </c>
@@ -4361,15 +4451,15 @@
       </c>
       <c r="E68" s="2"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B70" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
         <v>0</v>
       </c>
@@ -4386,7 +4476,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>1</v>
       </c>
@@ -4394,7 +4484,7 @@
         <v>152</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>140</v>
@@ -4403,7 +4493,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>2</v>
       </c>
@@ -4411,14 +4501,14 @@
         <v>153</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>143</v>
       </c>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -4435,20 +4525,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFF3889-4DE1-4EDC-BE51-A4C2BB00F684}">
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.58203125" customWidth="1"/>
-    <col min="2" max="2" width="49.58203125" customWidth="1"/>
+    <col min="1" max="1" width="24.625" customWidth="1"/>
+    <col min="2" max="2" width="49.625" customWidth="1"/>
     <col min="3" max="3" width="108" customWidth="1"/>
     <col min="4" max="4" width="17.25" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
@@ -4456,7 +4546,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -4473,7 +4563,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -4490,7 +4580,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -4505,7 +4595,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -4520,7 +4610,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -4535,15 +4625,15 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>0</v>
       </c>
@@ -4560,15 +4650,15 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>140</v>
@@ -4577,32 +4667,32 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>143</v>
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>0</v>
       </c>
@@ -4619,7 +4709,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -4636,7 +4726,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>2</v>
       </c>
@@ -4651,27 +4741,27 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>140</v>
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>155</v>
       </c>
@@ -4679,7 +4769,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>0</v>
       </c>
@@ -4696,7 +4786,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -4713,7 +4803,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>2</v>
       </c>
@@ -4728,7 +4818,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>3</v>
       </c>
@@ -4743,7 +4833,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>4</v>
       </c>
@@ -4758,14 +4848,14 @@
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>163</v>
       </c>
@@ -4773,7 +4863,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>0</v>
       </c>
@@ -4790,7 +4880,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>1</v>
       </c>
@@ -4807,7 +4897,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>2</v>
       </c>
@@ -4822,7 +4912,7 @@
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>3</v>
       </c>
@@ -4837,7 +4927,7 @@
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>246</v>
       </c>
@@ -4845,7 +4935,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>0</v>
       </c>
@@ -4862,7 +4952,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>1</v>
       </c>
@@ -4879,7 +4969,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>2</v>
       </c>
@@ -4896,7 +4986,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="16">
         <v>3</v>
       </c>
@@ -4911,7 +5001,7 @@
       </c>
       <c r="E36" s="16"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="17">
         <v>4</v>
       </c>
@@ -4926,7 +5016,7 @@
       </c>
       <c r="E37" s="19"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>5</v>
       </c>
@@ -4941,7 +5031,7 @@
       </c>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>6</v>
       </c>
@@ -4956,7 +5046,7 @@
       </c>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <v>7</v>
       </c>
@@ -4971,14 +5061,14 @@
       </c>
       <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>161</v>
       </c>
@@ -4989,7 +5079,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>0</v>
       </c>
@@ -5008,7 +5098,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>1</v>
       </c>
@@ -5025,7 +5115,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>2</v>
       </c>
@@ -5040,14 +5130,14 @@
       </c>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>166</v>
       </c>
@@ -5055,7 +5145,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>0</v>
       </c>
@@ -5072,7 +5162,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>1</v>
       </c>
@@ -5089,7 +5179,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>2</v>
       </c>
@@ -5104,7 +5194,7 @@
       </c>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>3</v>
       </c>
@@ -5119,7 +5209,7 @@
       </c>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>4</v>
       </c>
@@ -5134,14 +5224,14 @@
       </c>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
         <v>249</v>
       </c>
@@ -5152,7 +5242,7 @@
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>0</v>
       </c>
@@ -5172,7 +5262,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>1</v>
       </c>
@@ -5189,7 +5279,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>2</v>
       </c>
@@ -5206,7 +5296,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>3</v>
       </c>
@@ -5221,7 +5311,7 @@
       </c>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>4</v>
       </c>
@@ -5236,7 +5326,7 @@
       </c>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="12">
         <v>5</v>
       </c>
@@ -5251,7 +5341,7 @@
       </c>
       <c r="E60" s="7"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>44</v>
       </c>
@@ -5259,7 +5349,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>0</v>
       </c>
@@ -5276,7 +5366,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>1</v>
       </c>
@@ -5293,7 +5383,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>2</v>
       </c>
@@ -5308,7 +5398,7 @@
       </c>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>3</v>
       </c>
@@ -5323,7 +5413,7 @@
       </c>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>4</v>
       </c>
@@ -5334,11 +5424,11 @@
         <v>115</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E67" s="2"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>47</v>
       </c>
@@ -5346,7 +5436,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
         <v>0</v>
       </c>
@@ -5363,7 +5453,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>1</v>
       </c>
@@ -5380,7 +5470,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>2</v>
       </c>
@@ -5395,7 +5485,7 @@
       </c>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>3</v>
       </c>
@@ -5410,14 +5500,14 @@
       </c>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>251</v>
       </c>
@@ -5426,7 +5516,7 @@
       </c>
       <c r="G75" s="14"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
         <v>0</v>
       </c>
@@ -5443,7 +5533,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>1</v>
       </c>
@@ -5460,7 +5550,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>2</v>
       </c>
@@ -5477,7 +5567,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>3</v>
       </c>
@@ -5492,7 +5582,7 @@
       </c>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="9">
         <v>4</v>
       </c>
@@ -5507,7 +5597,7 @@
       </c>
       <c r="E80" s="7"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>173</v>
       </c>
@@ -5515,7 +5605,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
         <v>0</v>
       </c>
@@ -5532,7 +5622,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>1</v>
       </c>
@@ -5549,7 +5639,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>2</v>
       </c>
@@ -5564,7 +5654,7 @@
       </c>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>3</v>
       </c>
@@ -5579,7 +5669,7 @@
       </c>
       <c r="E86" s="2"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>172</v>
       </c>
@@ -5587,7 +5677,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
         <v>0</v>
       </c>
@@ -5604,7 +5694,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>1</v>
       </c>
@@ -5621,7 +5711,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>2</v>
       </c>
@@ -5636,7 +5726,7 @@
       </c>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>3</v>
       </c>
@@ -5651,7 +5741,7 @@
       </c>
       <c r="E92" s="2"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>176</v>
       </c>
@@ -5659,7 +5749,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
         <v>0</v>
       </c>
@@ -5676,7 +5766,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>1</v>
       </c>
@@ -5693,7 +5783,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>2</v>
       </c>
@@ -5708,7 +5798,7 @@
       </c>
       <c r="E97" s="2"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="8">
         <v>3</v>
       </c>
@@ -5723,7 +5813,7 @@
       </c>
       <c r="E98" s="2"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="8">
         <v>4</v>
       </c>
@@ -5738,7 +5828,7 @@
       </c>
       <c r="E99" s="2"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>274</v>
       </c>
@@ -5746,7 +5836,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
         <v>0</v>
       </c>
@@ -5763,7 +5853,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>1</v>
       </c>
@@ -5780,7 +5870,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>2</v>
       </c>
@@ -5795,7 +5885,7 @@
       </c>
       <c r="E104" s="2"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>3</v>
       </c>
@@ -5810,7 +5900,7 @@
       </c>
       <c r="E105" s="2"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>261</v>
       </c>
@@ -5818,7 +5908,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
         <v>0</v>
       </c>
@@ -5835,7 +5925,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>1</v>
       </c>
@@ -5852,7 +5942,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>2</v>
       </c>
@@ -5867,7 +5957,7 @@
       </c>
       <c r="E110" s="2"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>3</v>
       </c>
